--- a/rubber-properties/Silent_block_stiffness_N325_H100.xlsx
+++ b/rubber-properties/Silent_block_stiffness_N325_H100.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\binder_notebooks\rubber-properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0449E-07E7-416A-A59D-5B1AC8C12781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8EEAA-77DD-47C3-B0CF-D9E1E4BCFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Radial" sheetId="3" r:id="rId1"/>
-    <sheet name="Axial" sheetId="2" r:id="rId2"/>
+    <sheet name="Axial" sheetId="2" r:id="rId1"/>
+    <sheet name="Radial" sheetId="3" r:id="rId2"/>
     <sheet name="Conical" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -654,6 +654,1499 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Axial!$A$3:$A$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>20.057428000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9611011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.646523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.627699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-44.228321000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-59.978198999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-75.852310000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-86.007728999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-102.81895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-116.17206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-130.00993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-144.78480999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-156.89171999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-170.20247000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-181.49772999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-194.38127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-208.14188999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-217.04906</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-229.91927999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-240.55112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-250.12459999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-262.13373000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-270.36908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-284.65366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-292.83640000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-302.97082999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-313.92975000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-321.63891999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-333.75997999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-341.66516000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-351.39132999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-360.94353999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-369.42712</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-380.36770999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-385.33150999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-395.10271999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-405.56090999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-411.98297000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-422.99025999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-428.12936000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-438.89589999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-445.07805999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-453.33942000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-462.57659999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-468.18261999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-476.64508000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-484.13403</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-490.04547000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-499.72933999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-505.49191000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-515.49816999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-521.26482999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-528.20789000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-537.11072000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-543.30242999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-550.05988000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-556.37645999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-563.93903</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-571.32086000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-576.83660999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-586.22369000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-590.6626</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-599.03931</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-606.23168999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-611.75427000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-620.35235999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-625.31542999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-632.07977000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-640.55065999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-645.98388999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-654.13811999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-660.09838999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-666.57219999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-674.14972</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-680.18688999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-687.11279000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-692.95551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-700.47686999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-707.22253000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-712.92993000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-721.09509000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-727.15148999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-735.87805000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-741.10906999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-747.59735000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-755.98999000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-760.90033000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-770.57006999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-775.96160999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-783.12725999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-791.25153</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-794.82854999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-805.92358000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-811.52808000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-820.00372000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-827.28296</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-833.09984999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-842.62994000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-846.48383000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-855.78827000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-859.16265999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-823.93329000000006</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-798.47247000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-775.60686999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-757.06110000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-739.33545000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-720.89661000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-707.25507000000005</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-688.51917000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-676.09625000000005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-663.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-649.18933000000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-638.93433000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-624.26904000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-613.64184999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-599.41747999999995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-587.72913000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-577.70745999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-565.81011999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-556.83483999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-545.04138</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-536.03357000000005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-526.09131000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-514.69281000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-506.34670999999997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-494.50792999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-487.15728999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-477.19153</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-466.93576000000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-458.76645000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-448.73108000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-441.95114000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-432.24088</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-421.90429999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-415.66289999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-404.25635</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-397.96820000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-389.33908000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-381.49225000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-373.84075999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-363.55966000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-357.94423999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-348.42169000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-339.98311999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-334.30324999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-323.18738000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-317.00020999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-308.81182999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-300.70078000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-293.10964999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-284.57567999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-278.02478000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-267.60525999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-261.49209999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-255.53049999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-245.66739000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-239.37994</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-229.96097</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-223.27672000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-215.87787</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-206.61676</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-199.23253</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-190.78113999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-184.19426999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-176.01938999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-166.13379</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-159.93044</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-151.46992</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-144.15625</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-135.131</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-127.65098</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-120.80213000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-109.64162</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-104.75321</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-94.558952000000005</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-87.337378999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-79.426261999999994</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-69.243461999999994</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-62.246529000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-52.89996</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-46.361702000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-39.033031000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-29.867609000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-24.144911</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-14.065671999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-7.6873225999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.17778948</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.8431329999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>14.460925</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>19.208062999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19.003077999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>17.741879999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>20.035727999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>16.91291</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.902177999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18.845124999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17.219874999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.206572000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17.123577000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18.985475999999998</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19.495654999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Axial!$B$3:$B$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>-2.3612379999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4672698999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.12258291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17302334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22358596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27445257000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.32312274000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.37539601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.42469800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.47575532999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.52418113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57622790000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.62598586000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.67472160000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.72467327000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.77583789999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.82434118000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.87480544999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.92548430000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.97387731</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0231733000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0727108000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1255115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.1734247</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2254446999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2743026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3229966</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3757615999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.4235169000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.4734</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5222251</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.5732557</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.6251922000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.6761541</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7234236000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7726987999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.8239349</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.8757075000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.9251227</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.972872</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.0223708</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0735918999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.1236657999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.1726817999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.2215009000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.2736966999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.3218215</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.3744611999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.4229348000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.4714440999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.5218487000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.5730073</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.6225060999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6722847999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.7213096999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.7732670000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.8206376999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.8718203999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.9210419999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.9716996999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.0206708999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.0704498</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.1217872999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.1709762000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.2220987999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.2692165000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.3193290000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.3697784</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.4192532999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.4687936000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.5206317999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.5693228000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.6173315000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.6668272000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.7190020000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.7685246000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.8182974000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.8686096999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.9180278999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.9700568000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.0166558999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-4.0682134999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.1178435999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.1661739000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-4.2199701999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-4.2652635999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-4.3162675000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4.3659448999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-4.4158878000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.4662685</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.5159788000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-4.5666007999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-4.6156854999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.6657085</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-4.7154455000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-4.7646613000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.8143206000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-4.8661561000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.9144416</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4.9670639000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-5.0071744999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-4.9620271000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.9098730000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.8601808999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-4.8105092000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4.7606200999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-4.7084599000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-4.6592292999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-4.6086459</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-4.5573205999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-4.5099020000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-4.4588270000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-4.4075875</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-4.3573469999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-4.3083849000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-4.2563108999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-4.2076082000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-4.1552277000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-4.1060895999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-4.0564685000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-4.0053339000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-3.9572059999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-3.9058744999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-3.8555174000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-3.8043708999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-3.7523298</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-3.7039399</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-3.6544770999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-3.6057948999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.5547553999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-3.5051882000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-3.4568400000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-3.4054847000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-3.3559798999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-3.3054948</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-3.2549977000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3.2048554</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-3.1530471000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-3.1015158</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-3.0536829999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-3.0052422999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.9543816999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.9054136000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.8548388</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.8045713999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.7547419</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.7034402000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.6558847000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.6049880999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.5558352000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.5049538999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.4553151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.4043112</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.3530392999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.3045182</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.2549331000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.2062659</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.1541834</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.1042228000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.0559340000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.0039975999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.9562244</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.9069076</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.8555999000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.8049269999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.7561823000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.7046303</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.6567826000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.6070038</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.555714</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-1.5062571</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.4554530000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.4053762000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.3547450000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.3066530000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.2579678999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.2067854</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.1556327</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.1076778</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.0569930000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.0062397000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.95686017999999995</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.90675950000000005</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.85744858000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.80858766999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.75762569999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.70697962999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.65788031000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.61007440000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.55851041999999995</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.50880610999999998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.45742691000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.40764809000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.35818814999999998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.30865371000000003</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.25865137999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.21043122</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.15918910999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.10710955</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-5.8558582999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-1.0612607E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C51C-49A9-AB39-B9430BC5FB99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="991557232"/>
+        <c:axId val="991557712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="991557232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991557712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="991557712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991557232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Radial!$A$3:$A$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2015,1499 +3508,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2047195360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Axial!$A$3:$A$203</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
-                <c:pt idx="0">
-                  <c:v>20.057428000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9611011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-12.646523</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-29.627699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-44.228321000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-59.978198999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-75.852310000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-86.007728999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-102.81895</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-116.17206</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-130.00993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-144.78480999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-156.89171999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-170.20247000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-181.49772999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-194.38127</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-208.14188999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-217.04906</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-229.91927999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-240.55112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-250.12459999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-262.13373000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-270.36908</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-284.65366</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-292.83640000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-302.97082999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-313.92975000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-321.63891999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-333.75997999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-341.66516000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-351.39132999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-360.94353999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-369.42712</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-380.36770999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-385.33150999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-395.10271999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-405.56090999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-411.98297000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-422.99025999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-428.12936000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-438.89589999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-445.07805999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-453.33942000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-462.57659999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-468.18261999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-476.64508000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-484.13403</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-490.04547000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-499.72933999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-505.49191000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-515.49816999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-521.26482999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-528.20789000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-537.11072000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-543.30242999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-550.05988000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-556.37645999999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-563.93903</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-571.32086000000004</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-576.83660999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-586.22369000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-590.6626</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-599.03931</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-606.23168999999996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-611.75427000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-620.35235999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-625.31542999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-632.07977000000005</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-640.55065999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-645.98388999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-654.13811999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-660.09838999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-666.57219999999995</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-674.14972</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-680.18688999999995</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-687.11279000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-692.95551</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-700.47686999999996</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-707.22253000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-712.92993000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-721.09509000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-727.15148999999997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-735.87805000000003</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-741.10906999999997</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-747.59735000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-755.98999000000003</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-760.90033000000005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-770.57006999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-775.96160999999995</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-783.12725999999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-791.25153</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-794.82854999999995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-805.92358000000002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-811.52808000000005</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-820.00372000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-827.28296</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-833.09984999999995</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-842.62994000000003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-846.48383000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-855.78827000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-859.16265999999996</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-823.93329000000006</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-798.47247000000004</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-775.60686999999996</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-757.06110000000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-739.33545000000004</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-720.89661000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-707.25507000000005</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-688.51917000000003</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-676.09625000000005</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-663.25</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-649.18933000000004</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-638.93433000000005</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-624.26904000000002</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-613.64184999999998</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-599.41747999999995</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-587.72913000000005</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-577.70745999999997</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-565.81011999999998</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-556.83483999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-545.04138</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-536.03357000000005</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-526.09131000000002</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-514.69281000000001</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-506.34670999999997</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-494.50792999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-487.15728999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-477.19153</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-466.93576000000002</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-458.76645000000002</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-448.73108000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-441.95114000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-432.24088</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-421.90429999999998</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-415.66289999999998</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-404.25635</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-397.96820000000002</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-389.33908000000002</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-381.49225000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-373.84075999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-363.55966000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-357.94423999999998</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-348.42169000000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-339.98311999999999</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-334.30324999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-323.18738000000002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-317.00020999999998</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-308.81182999999999</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-300.70078000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-293.10964999999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-284.57567999999998</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-278.02478000000002</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-267.60525999999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-261.49209999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-255.53049999999999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-245.66739000000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-239.37994</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-229.96097</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-223.27672000000001</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-215.87787</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-206.61676</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-199.23253</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-190.78113999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-184.19426999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-176.01938999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-166.13379</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-159.93044</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-151.46992</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-144.15625</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-135.131</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-127.65098</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-120.80213000000001</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-109.64162</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-104.75321</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-94.558952000000005</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-87.337378999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-79.426261999999994</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-69.243461999999994</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-62.246529000000002</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-52.89996</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-46.361702000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-39.033031000000001</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-29.867609000000002</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-24.144911</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-14.065671999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-7.6873225999999999</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.17778948</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>7.8431329999999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>14.460925</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>19.208062999999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>19.003077999999999</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>17.741879999999998</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>20.035727999999999</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>16.91291</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>19.902177999999999</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>18.845124999999999</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>17.219874999999998</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>19.206572000000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>17.123577000000001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>18.985475999999998</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>19.495654999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Axial!$B$3:$B$203</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
-                <c:pt idx="0">
-                  <c:v>-2.3612379999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.4672698999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.12258291</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.17302334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.22358596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.27445257000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.32312274000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.37539601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.42469800000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.47575532999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.52418113</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.57622790000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.62598586000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.67472160000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.72467327000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.77583789999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.82434118000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.87480544999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.92548430000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.97387731</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.0231733000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.0727108000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.1255115</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.1734247</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.2254446999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.2743026</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.3229966</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.3757615999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.4235169000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.4734</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.5222251</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.5732557</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.6251922000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.6761541</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.7234236000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.7726987999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.8239349</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.8757075000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.9251227</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.972872</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-2.0223708</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.0735918999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-2.1236657999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-2.1726817999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.2215009000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.2736966999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-2.3218215</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-2.3744611999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-2.4229348000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-2.4714440999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-2.5218487000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-2.5730073</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-2.6225060999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-2.6722847999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-2.7213096999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-2.7732670000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-2.8206376999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-2.8718203999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-2.9210419999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-2.9716996999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-3.0206708999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.0704498</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-3.1217872999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-3.1709762000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-3.2220987999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-3.2692165000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-3.3193290000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-3.3697784</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-3.4192532999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-3.4687936000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-3.5206317999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-3.5693228000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-3.6173315000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-3.6668272000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-3.7190020000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-3.7685246000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-3.8182974000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-3.8686096999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-3.9180278999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-3.9700568000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-4.0166558999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-4.0682134999999997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-4.1178435999999996</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-4.1661739000000004</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-4.2199701999999997</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-4.2652635999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-4.3162675000000004</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-4.3659448999999997</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-4.4158878000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-4.4662685</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-4.5159788000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-4.5666007999999998</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-4.6156854999999997</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-4.6657085</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-4.7154455000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-4.7646613000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.8143206000000003</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-4.8661561000000004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-4.9144416</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-4.9670639000000003</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-5.0071744999999996</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-4.9620271000000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-4.9098730000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-4.8601808999999996</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-4.8105092000000003</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-4.7606200999999997</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-4.7084599000000003</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-4.6592292999999998</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-4.6086459</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-4.5573205999999997</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-4.5099020000000003</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-4.4588270000000003</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-4.4075875</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-4.3573469999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-4.3083849000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-4.2563108999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-4.2076082000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-4.1552277000000002</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-4.1060895999999998</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-4.0564685000000003</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-4.0053339000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-3.9572059999999998</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-3.9058744999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-3.8555174000000001</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-3.8043708999999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-3.7523298</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-3.7039399</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-3.6544770999999998</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-3.6057948999999998</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-3.5547553999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-3.5051882000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-3.4568400000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-3.4054847000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-3.3559798999999999</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-3.3054948</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-3.2549977000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-3.2048554</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-3.1530471000000002</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-3.1015158</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-3.0536829999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-3.0052422999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-2.9543816999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-2.9054136000000002</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-2.8548388</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-2.8045713999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-2.7547419</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-2.7034402000000002</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-2.6558847000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-2.6049880999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-2.5558352000000002</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-2.5049538999999998</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-2.4553151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-2.4043112</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-2.3530392999999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-2.3045182</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-2.2549331000000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-2.2062659</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-2.1541834</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-2.1042228000000001</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-2.0559340000000002</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-2.0039975999999999</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-1.9562244</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-1.9069076</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-1.8555999000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-1.8049269999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-1.7561823000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-1.7046303</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-1.6567826000000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-1.6070038</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-1.555714</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-1.5062571</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-1.4554530000000001</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-1.4053762000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-1.3547450000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-1.3066530000000001</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-1.2579678999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-1.2067854</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-1.1556327</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-1.1076778</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-1.0569930000000001</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-1.0062397000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-0.95686017999999995</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-0.90675950000000005</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.85744858000000002</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-0.80858766999999998</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.75762569999999996</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.70697962999999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-0.65788031000000002</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-0.61007440000000002</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-0.55851041999999995</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-0.50880610999999998</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.45742691000000002</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-0.40764809000000002</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-0.35818814999999998</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-0.30865371000000003</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-0.25865137999999999</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.21043122</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-0.15918910999999999</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-0.10710955</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-5.8558582999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-1.0612607E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C51C-49A9-AB39-B9430BC5FB99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="991557232"/>
-        <c:axId val="991557712"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="991557232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="991557712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="991557712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="991557232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6642,7 +6642,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1874F50F-B597-4776-A58E-507C3A527EE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF27FA-DA37-420C-B9FE-BB0BCB911B6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6685,7 +6685,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF27FA-DA37-420C-B9FE-BB0BCB911B6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1874F50F-B597-4776-A58E-507C3A527EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7067,1649 +7067,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B203"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-8.2639980000000008</v>
-      </c>
-      <c r="B3">
-        <v>-1.8521666999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-39.639881000000003</v>
-      </c>
-      <c r="B4">
-        <v>-6.887269E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-64.515136999999996</v>
-      </c>
-      <c r="B5">
-        <v>-0.11853826000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-89.490325999999996</v>
-      </c>
-      <c r="B6">
-        <v>-0.16774786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-133.57223999999999</v>
-      </c>
-      <c r="B7">
-        <v>-0.22039365999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-240.47958</v>
-      </c>
-      <c r="B8">
-        <v>-0.27026783999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-342.04642000000001</v>
-      </c>
-      <c r="B9">
-        <v>-0.31758797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-440.74547999999999</v>
-      </c>
-      <c r="B10">
-        <v>-0.36668134000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-535.62292000000002</v>
-      </c>
-      <c r="B11">
-        <v>-0.41891288999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-626.44226000000003</v>
-      </c>
-      <c r="B12">
-        <v>-0.46861422000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-715.21776999999997</v>
-      </c>
-      <c r="B13">
-        <v>-0.51899803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-798.78026999999997</v>
-      </c>
-      <c r="B14">
-        <v>-0.56860697000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-883.28710999999998</v>
-      </c>
-      <c r="B15">
-        <v>-0.61871063999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-960.06646999999998</v>
-      </c>
-      <c r="B16">
-        <v>-0.66895437000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-1036.2072000000001</v>
-      </c>
-      <c r="B17">
-        <v>-0.71791362999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-1110.0862999999999</v>
-      </c>
-      <c r="B18">
-        <v>-0.76997828000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-1178.8204000000001</v>
-      </c>
-      <c r="B19">
-        <v>-0.81857097000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-1248.3677</v>
-      </c>
-      <c r="B20">
-        <v>-0.86925578000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-1316.4052999999999</v>
-      </c>
-      <c r="B21">
-        <v>-0.91871274000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-1383.0187000000001</v>
-      </c>
-      <c r="B22">
-        <v>-0.96816373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>-1445.4668999999999</v>
-      </c>
-      <c r="B23">
-        <v>-1.0176326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-1509.0553</v>
-      </c>
-      <c r="B24">
-        <v>-1.0677392000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-1570.5282999999999</v>
-      </c>
-      <c r="B25">
-        <v>-1.1174525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-1625.1431</v>
-      </c>
-      <c r="B26">
-        <v>-1.1682386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-1679.6659999999999</v>
-      </c>
-      <c r="B27">
-        <v>-1.2171711000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>-1733.5582999999999</v>
-      </c>
-      <c r="B28">
-        <v>-1.2679662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-1783.0688</v>
-      </c>
-      <c r="B29">
-        <v>-1.3197148999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>-1829.8667</v>
-      </c>
-      <c r="B30">
-        <v>-1.3683791000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-1872.7145</v>
-      </c>
-      <c r="B31">
-        <v>-1.4164234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>-1915.5472</v>
-      </c>
-      <c r="B32">
-        <v>-1.4675164999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>-1953.5890999999999</v>
-      </c>
-      <c r="B33">
-        <v>-1.5159899999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>-1995.9208000000001</v>
-      </c>
-      <c r="B34">
-        <v>-1.5677865</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>-2037.0075999999999</v>
-      </c>
-      <c r="B35">
-        <v>-1.6186799000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>-2077.4684999999999</v>
-      </c>
-      <c r="B36">
-        <v>-1.6671772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>-2113.8123000000001</v>
-      </c>
-      <c r="B37">
-        <v>-1.7152244999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>-2175.0281</v>
-      </c>
-      <c r="B38">
-        <v>-1.7668898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>-2235.4625999999998</v>
-      </c>
-      <c r="B39">
-        <v>-1.8162931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>-2293.6514000000002</v>
-      </c>
-      <c r="B40">
-        <v>-1.8666948000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>-2353.0268999999998</v>
-      </c>
-      <c r="B41">
-        <v>-1.9167091000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>-2411.0769</v>
-      </c>
-      <c r="B42">
-        <v>-1.9657606999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>-2469.0203000000001</v>
-      </c>
-      <c r="B43">
-        <v>-2.0157690000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>-2522.1255000000001</v>
-      </c>
-      <c r="B44">
-        <v>-2.0666327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>-2581.2637</v>
-      </c>
-      <c r="B45">
-        <v>-2.1170312999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>-2640.5417000000002</v>
-      </c>
-      <c r="B46">
-        <v>-2.1658864000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>-2698.8555000000001</v>
-      </c>
-      <c r="B47">
-        <v>-2.2159838999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>-2757.7705000000001</v>
-      </c>
-      <c r="B48">
-        <v>-2.2643293999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>-2816.7060999999999</v>
-      </c>
-      <c r="B49">
-        <v>-2.3173506000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>-2877.4153000000001</v>
-      </c>
-      <c r="B50">
-        <v>-2.3663783</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>-2936.4688000000001</v>
-      </c>
-      <c r="B51">
-        <v>-2.4151440000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>-3003.0700999999999</v>
-      </c>
-      <c r="B52">
-        <v>-2.4636979000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>-3064.2671</v>
-      </c>
-      <c r="B53">
-        <v>-2.5148446999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>-3130.5293000000001</v>
-      </c>
-      <c r="B54">
-        <v>-2.5649872</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>-3198.2294999999999</v>
-      </c>
-      <c r="B55">
-        <v>-2.6155824999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>-3260.9315999999999</v>
-      </c>
-      <c r="B56">
-        <v>-2.6655848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>-3330.7617</v>
-      </c>
-      <c r="B57">
-        <v>-2.7137156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>-3398.6466999999998</v>
-      </c>
-      <c r="B58">
-        <v>-2.7657324999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>-3472.7239</v>
-      </c>
-      <c r="B59">
-        <v>-2.8140806999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>-3548.5938000000001</v>
-      </c>
-      <c r="B60">
-        <v>-2.8623843</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>-3627.9906999999998</v>
-      </c>
-      <c r="B61">
-        <v>-2.9150898000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>-3710.2802999999999</v>
-      </c>
-      <c r="B62">
-        <v>-2.9628896999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>-3797.5264000000002</v>
-      </c>
-      <c r="B63">
-        <v>-3.0128832000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>-3885.6950999999999</v>
-      </c>
-      <c r="B64">
-        <v>-3.0635976999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>-3980.3181</v>
-      </c>
-      <c r="B65">
-        <v>-3.1133142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>-4072.74</v>
-      </c>
-      <c r="B66">
-        <v>-3.1613821999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>-4172.4306999999999</v>
-      </c>
-      <c r="B67">
-        <v>-3.2117719999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>-4273.5141999999996</v>
-      </c>
-      <c r="B68">
-        <v>-3.2639170000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>-4386.6831000000002</v>
-      </c>
-      <c r="B69">
-        <v>-3.3112104000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>-4498.9897000000001</v>
-      </c>
-      <c r="B70">
-        <v>-3.3625330999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>-4612.3540000000003</v>
-      </c>
-      <c r="B71">
-        <v>-3.4129046999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>-4736.1597000000002</v>
-      </c>
-      <c r="B72">
-        <v>-3.4627968999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>-4859.71</v>
-      </c>
-      <c r="B73">
-        <v>-3.5123433999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>-4992.0731999999998</v>
-      </c>
-      <c r="B74">
-        <v>-3.5612845000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>-5133.6190999999999</v>
-      </c>
-      <c r="B75">
-        <v>-3.6117878000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>-5277.2466000000004</v>
-      </c>
-      <c r="B76">
-        <v>-3.6617006999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>-5427.6709000000001</v>
-      </c>
-      <c r="B77">
-        <v>-3.7111337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>-5594.1782000000003</v>
-      </c>
-      <c r="B78">
-        <v>-3.7603282999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>-5755.2494999999999</v>
-      </c>
-      <c r="B79">
-        <v>-3.8105483000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>-5934.8296</v>
-      </c>
-      <c r="B80">
-        <v>-3.8607116000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>-6131.9228999999996</v>
-      </c>
-      <c r="B81">
-        <v>-3.9099689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>-6335.3032000000003</v>
-      </c>
-      <c r="B82">
-        <v>-3.9602127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>-6549.1421</v>
-      </c>
-      <c r="B83">
-        <v>-4.0091004000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>-6772.6313</v>
-      </c>
-      <c r="B84">
-        <v>-4.0598239999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>-7008.9076999999997</v>
-      </c>
-      <c r="B85">
-        <v>-4.1091823999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>-7255.4966000000004</v>
-      </c>
-      <c r="B86">
-        <v>-4.1591578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>-7520.0127000000002</v>
-      </c>
-      <c r="B87">
-        <v>-4.2093720000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>-7788.9413999999997</v>
-      </c>
-      <c r="B88">
-        <v>-4.2584562000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>-8080.2681000000002</v>
-      </c>
-      <c r="B89">
-        <v>-4.3075527999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>-8388.1074000000008</v>
-      </c>
-      <c r="B90">
-        <v>-4.3588456999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>-8707.2294999999995</v>
-      </c>
-      <c r="B91">
-        <v>-4.4079269999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>-9035.9892999999993</v>
-      </c>
-      <c r="B92">
-        <v>-4.4549222000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>-9390.8916000000008</v>
-      </c>
-      <c r="B93">
-        <v>-4.5084057</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>-9754.5967000000001</v>
-      </c>
-      <c r="B94">
-        <v>-4.5559611000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>-10148.620999999999</v>
-      </c>
-      <c r="B95">
-        <v>-4.6074118999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>-10555.985000000001</v>
-      </c>
-      <c r="B96">
-        <v>-4.6557689</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>-10988.385</v>
-      </c>
-      <c r="B97">
-        <v>-4.7051157999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>-11430.683000000001</v>
-      </c>
-      <c r="B98">
-        <v>-4.7544775000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>-11893.004999999999</v>
-      </c>
-      <c r="B99">
-        <v>-4.8034840000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>-12360.136</v>
-      </c>
-      <c r="B100">
-        <v>-4.8530426000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>-12867.636</v>
-      </c>
-      <c r="B101">
-        <v>-4.9067015999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>-13368.513999999999</v>
-      </c>
-      <c r="B102">
-        <v>-4.9523109999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>-13852.053</v>
-      </c>
-      <c r="B103">
-        <v>-5.0010437999999997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>-12096.224</v>
-      </c>
-      <c r="B104">
-        <v>-4.9635376999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>-10468.835999999999</v>
-      </c>
-      <c r="B105">
-        <v>-4.9167956999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>-9117.4590000000007</v>
-      </c>
-      <c r="B106">
-        <v>-4.8663254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>-8010.5492999999997</v>
-      </c>
-      <c r="B107">
-        <v>-4.8132386</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>-7160.4453000000003</v>
-      </c>
-      <c r="B108">
-        <v>-4.7628665000000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>-6409.3130000000001</v>
-      </c>
-      <c r="B109">
-        <v>-4.7149533999999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>-5751.7143999999998</v>
-      </c>
-      <c r="B110">
-        <v>-4.6662296999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>-5192.7187999999996</v>
-      </c>
-      <c r="B111">
-        <v>-4.6138934999999996</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>-4716.3423000000003</v>
-      </c>
-      <c r="B112">
-        <v>-4.5631165999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>-4314.3964999999998</v>
-      </c>
-      <c r="B113">
-        <v>-4.5112724000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>-3964.2559000000001</v>
-      </c>
-      <c r="B114">
-        <v>-4.4646559000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>-3661.0173</v>
-      </c>
-      <c r="B115">
-        <v>-4.4137411000000002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>-3385.4967999999999</v>
-      </c>
-      <c r="B116">
-        <v>-4.3633994999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>-3147.0547000000001</v>
-      </c>
-      <c r="B117">
-        <v>-4.3120827999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>-2930.1421</v>
-      </c>
-      <c r="B118">
-        <v>-4.2643928999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>-2739.1138000000001</v>
-      </c>
-      <c r="B119">
-        <v>-4.2106713999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>-2553.9126000000001</v>
-      </c>
-      <c r="B120">
-        <v>-4.1640306000000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>-2396.3784000000001</v>
-      </c>
-      <c r="B121">
-        <v>-4.1104136000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>-2248.2278000000001</v>
-      </c>
-      <c r="B122">
-        <v>-4.0604677000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>-2110.2892999999999</v>
-      </c>
-      <c r="B123">
-        <v>-4.0124053999999996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>-1981.3258000000001</v>
-      </c>
-      <c r="B124">
-        <v>-3.963336</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>-1861.1007999999999</v>
-      </c>
-      <c r="B125">
-        <v>-3.9135689999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>-1750.3782000000001</v>
-      </c>
-      <c r="B126">
-        <v>-3.8634800999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>-1643.4052999999999</v>
-      </c>
-      <c r="B127">
-        <v>-3.8105989</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>-1547.6256000000001</v>
-      </c>
-      <c r="B128">
-        <v>-3.7627931000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>-1447.4650999999999</v>
-      </c>
-      <c r="B129">
-        <v>-3.7105646000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>-1352.8304000000001</v>
-      </c>
-      <c r="B130">
-        <v>-3.6618852999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>-1263.4756</v>
-      </c>
-      <c r="B131">
-        <v>-3.6114898000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>-1177.7610999999999</v>
-      </c>
-      <c r="B132">
-        <v>-3.5606765999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>-1097.222</v>
-      </c>
-      <c r="B133">
-        <v>-3.5126295000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>-1008.6496</v>
-      </c>
-      <c r="B134">
-        <v>-3.4619116999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>-931.32977000000005</v>
-      </c>
-      <c r="B135">
-        <v>-3.4089619999999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>-854.02295000000004</v>
-      </c>
-      <c r="B136">
-        <v>-3.3613409999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>-777.83037999999999</v>
-      </c>
-      <c r="B137">
-        <v>-3.3085551</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>-705.20330999999999</v>
-      </c>
-      <c r="B138">
-        <v>-3.2615747000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>-633.32732999999996</v>
-      </c>
-      <c r="B139">
-        <v>-3.2098974999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>-562.46686</v>
-      </c>
-      <c r="B140">
-        <v>-3.1618769000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>-504.26013</v>
-      </c>
-      <c r="B141">
-        <v>-3.1123455</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>-433.22140999999999</v>
-      </c>
-      <c r="B142">
-        <v>-3.0619763999999998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>-367.57529</v>
-      </c>
-      <c r="B143">
-        <v>-3.0103320999999998</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>-303.36621000000002</v>
-      </c>
-      <c r="B144">
-        <v>-2.9614414999999998</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>-242.81088</v>
-      </c>
-      <c r="B145">
-        <v>-2.9136117000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>-187.61633</v>
-      </c>
-      <c r="B146">
-        <v>-2.8621221000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>-133.14578</v>
-      </c>
-      <c r="B147">
-        <v>-2.8129902000000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>-76.916252</v>
-      </c>
-      <c r="B148">
-        <v>-2.7610774</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>-28.201938999999999</v>
-      </c>
-      <c r="B149">
-        <v>-2.7114954</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>6.9677829999999998</v>
-      </c>
-      <c r="B150">
-        <v>-2.6613378999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>25.323965000000001</v>
-      </c>
-      <c r="B151">
-        <v>-2.6118453000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>40.795279999999998</v>
-      </c>
-      <c r="B152">
-        <v>-2.5596793</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>41.827652</v>
-      </c>
-      <c r="B153">
-        <v>-2.5115783</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>41.325297999999997</v>
-      </c>
-      <c r="B154">
-        <v>-2.4614596</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>40.781405999999997</v>
-      </c>
-      <c r="B155">
-        <v>-2.4122739000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>42.042693999999997</v>
-      </c>
-      <c r="B156">
-        <v>-2.3612584999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>42.738579000000001</v>
-      </c>
-      <c r="B157">
-        <v>-2.3117895000000002</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>41.605068000000003</v>
-      </c>
-      <c r="B158">
-        <v>-2.2615637999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>41.706020000000002</v>
-      </c>
-      <c r="B159">
-        <v>-2.2104377999999998</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>41.923763000000001</v>
-      </c>
-      <c r="B160">
-        <v>-2.1634991000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>41.712539999999997</v>
-      </c>
-      <c r="B161">
-        <v>-2.1117802000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>42.515808</v>
-      </c>
-      <c r="B162">
-        <v>-2.0618791999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>41.670352999999999</v>
-      </c>
-      <c r="B163">
-        <v>-2.0104582</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>41.256751999999999</v>
-      </c>
-      <c r="B164">
-        <v>-1.9609506000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>40.900241999999999</v>
-      </c>
-      <c r="B165">
-        <v>-1.9117708</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>42.009075000000003</v>
-      </c>
-      <c r="B166">
-        <v>-1.8606955999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>41.169578999999999</v>
-      </c>
-      <c r="B167">
-        <v>-1.8095489</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>40.876026000000003</v>
-      </c>
-      <c r="B168">
-        <v>-1.7632152000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>42.260719000000002</v>
-      </c>
-      <c r="B169">
-        <v>-1.7119194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>40.909927000000003</v>
-      </c>
-      <c r="B170">
-        <v>-1.6617143999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>41.732470999999997</v>
-      </c>
-      <c r="B171">
-        <v>-1.6111607999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>42.504910000000002</v>
-      </c>
-      <c r="B172">
-        <v>-1.5626247</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>40.909087999999997</v>
-      </c>
-      <c r="B173">
-        <v>-1.5116925000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>41.66048</v>
-      </c>
-      <c r="B174">
-        <v>-1.4620329000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>41.608790999999997</v>
-      </c>
-      <c r="B175">
-        <v>-1.4130558</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>42.133499</v>
-      </c>
-      <c r="B176">
-        <v>-1.3624723000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>42.642558999999999</v>
-      </c>
-      <c r="B177">
-        <v>-1.313677</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>41.380431999999999</v>
-      </c>
-      <c r="B178">
-        <v>-1.2647444999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>41.728465999999997</v>
-      </c>
-      <c r="B179">
-        <v>-1.2142265999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>41.918456999999997</v>
-      </c>
-      <c r="B180">
-        <v>-1.1631841999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>41.690933000000001</v>
-      </c>
-      <c r="B181">
-        <v>-1.1126602999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>41.478966</v>
-      </c>
-      <c r="B182">
-        <v>-1.0624671999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>40.677841000000001</v>
-      </c>
-      <c r="B183">
-        <v>-1.0133141999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>41.812843000000001</v>
-      </c>
-      <c r="B184">
-        <v>-0.96232545000000003</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>41.315238999999998</v>
-      </c>
-      <c r="B185">
-        <v>-0.91402483000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>42.197665999999998</v>
-      </c>
-      <c r="B186">
-        <v>-0.86229396000000003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>41.424297000000003</v>
-      </c>
-      <c r="B187">
-        <v>-0.81538509999999997</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>40.676071</v>
-      </c>
-      <c r="B188">
-        <v>-0.76459301000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>41.798873999999998</v>
-      </c>
-      <c r="B189">
-        <v>-0.71336579</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>40.407477999999998</v>
-      </c>
-      <c r="B190">
-        <v>-0.66403699000000005</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>41.752868999999997</v>
-      </c>
-      <c r="B191">
-        <v>-0.61350417000000002</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>40.403472999999998</v>
-      </c>
-      <c r="B192">
-        <v>-0.56451808999999997</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>41.409675999999997</v>
-      </c>
-      <c r="B193">
-        <v>-0.51581513999999995</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>40.874721999999998</v>
-      </c>
-      <c r="B194">
-        <v>-0.46473991999999997</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>39.414597000000001</v>
-      </c>
-      <c r="B195">
-        <v>-0.41571212000000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>42.263511999999999</v>
-      </c>
-      <c r="B196">
-        <v>-0.36492002000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>42.367260000000002</v>
-      </c>
-      <c r="B197">
-        <v>-0.31500113000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>40.327759</v>
-      </c>
-      <c r="B198">
-        <v>-0.26437294</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>41.668208999999997</v>
-      </c>
-      <c r="B199">
-        <v>-0.21648359</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>41.644832999999998</v>
-      </c>
-      <c r="B200">
-        <v>-0.16585541000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>41.709282000000002</v>
-      </c>
-      <c r="B201">
-        <v>-0.11571896</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>42.326282999999997</v>
-      </c>
-      <c r="B202">
-        <v>-6.6297770000000006E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>40.303821999999997</v>
-      </c>
-      <c r="B203">
-        <v>-1.7678261000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B203"/>
   <sheetViews>
@@ -10345,6 +8702,1649 @@
       </c>
       <c r="B203">
         <v>-1.0612607E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-8.2639980000000008</v>
+      </c>
+      <c r="B3">
+        <v>-1.8521666999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-39.639881000000003</v>
+      </c>
+      <c r="B4">
+        <v>-6.887269E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-64.515136999999996</v>
+      </c>
+      <c r="B5">
+        <v>-0.11853826000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-89.490325999999996</v>
+      </c>
+      <c r="B6">
+        <v>-0.16774786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-133.57223999999999</v>
+      </c>
+      <c r="B7">
+        <v>-0.22039365999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-240.47958</v>
+      </c>
+      <c r="B8">
+        <v>-0.27026783999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-342.04642000000001</v>
+      </c>
+      <c r="B9">
+        <v>-0.31758797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-440.74547999999999</v>
+      </c>
+      <c r="B10">
+        <v>-0.36668134000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-535.62292000000002</v>
+      </c>
+      <c r="B11">
+        <v>-0.41891288999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-626.44226000000003</v>
+      </c>
+      <c r="B12">
+        <v>-0.46861422000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-715.21776999999997</v>
+      </c>
+      <c r="B13">
+        <v>-0.51899803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-798.78026999999997</v>
+      </c>
+      <c r="B14">
+        <v>-0.56860697000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-883.28710999999998</v>
+      </c>
+      <c r="B15">
+        <v>-0.61871063999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-960.06646999999998</v>
+      </c>
+      <c r="B16">
+        <v>-0.66895437000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1036.2072000000001</v>
+      </c>
+      <c r="B17">
+        <v>-0.71791362999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1110.0862999999999</v>
+      </c>
+      <c r="B18">
+        <v>-0.76997828000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1178.8204000000001</v>
+      </c>
+      <c r="B19">
+        <v>-0.81857097000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1248.3677</v>
+      </c>
+      <c r="B20">
+        <v>-0.86925578000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1316.4052999999999</v>
+      </c>
+      <c r="B21">
+        <v>-0.91871274000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1383.0187000000001</v>
+      </c>
+      <c r="B22">
+        <v>-0.96816373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1445.4668999999999</v>
+      </c>
+      <c r="B23">
+        <v>-1.0176326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1509.0553</v>
+      </c>
+      <c r="B24">
+        <v>-1.0677392000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1570.5282999999999</v>
+      </c>
+      <c r="B25">
+        <v>-1.1174525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1625.1431</v>
+      </c>
+      <c r="B26">
+        <v>-1.1682386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1679.6659999999999</v>
+      </c>
+      <c r="B27">
+        <v>-1.2171711000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1733.5582999999999</v>
+      </c>
+      <c r="B28">
+        <v>-1.2679662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1783.0688</v>
+      </c>
+      <c r="B29">
+        <v>-1.3197148999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1829.8667</v>
+      </c>
+      <c r="B30">
+        <v>-1.3683791000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1872.7145</v>
+      </c>
+      <c r="B31">
+        <v>-1.4164234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1915.5472</v>
+      </c>
+      <c r="B32">
+        <v>-1.4675164999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1953.5890999999999</v>
+      </c>
+      <c r="B33">
+        <v>-1.5159899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1995.9208000000001</v>
+      </c>
+      <c r="B34">
+        <v>-1.5677865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-2037.0075999999999</v>
+      </c>
+      <c r="B35">
+        <v>-1.6186799000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-2077.4684999999999</v>
+      </c>
+      <c r="B36">
+        <v>-1.6671772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-2113.8123000000001</v>
+      </c>
+      <c r="B37">
+        <v>-1.7152244999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-2175.0281</v>
+      </c>
+      <c r="B38">
+        <v>-1.7668898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-2235.4625999999998</v>
+      </c>
+      <c r="B39">
+        <v>-1.8162931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-2293.6514000000002</v>
+      </c>
+      <c r="B40">
+        <v>-1.8666948000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-2353.0268999999998</v>
+      </c>
+      <c r="B41">
+        <v>-1.9167091000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-2411.0769</v>
+      </c>
+      <c r="B42">
+        <v>-1.9657606999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-2469.0203000000001</v>
+      </c>
+      <c r="B43">
+        <v>-2.0157690000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-2522.1255000000001</v>
+      </c>
+      <c r="B44">
+        <v>-2.0666327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-2581.2637</v>
+      </c>
+      <c r="B45">
+        <v>-2.1170312999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-2640.5417000000002</v>
+      </c>
+      <c r="B46">
+        <v>-2.1658864000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-2698.8555000000001</v>
+      </c>
+      <c r="B47">
+        <v>-2.2159838999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-2757.7705000000001</v>
+      </c>
+      <c r="B48">
+        <v>-2.2643293999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-2816.7060999999999</v>
+      </c>
+      <c r="B49">
+        <v>-2.3173506000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-2877.4153000000001</v>
+      </c>
+      <c r="B50">
+        <v>-2.3663783</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-2936.4688000000001</v>
+      </c>
+      <c r="B51">
+        <v>-2.4151440000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-3003.0700999999999</v>
+      </c>
+      <c r="B52">
+        <v>-2.4636979000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-3064.2671</v>
+      </c>
+      <c r="B53">
+        <v>-2.5148446999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3130.5293000000001</v>
+      </c>
+      <c r="B54">
+        <v>-2.5649872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-3198.2294999999999</v>
+      </c>
+      <c r="B55">
+        <v>-2.6155824999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-3260.9315999999999</v>
+      </c>
+      <c r="B56">
+        <v>-2.6655848</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-3330.7617</v>
+      </c>
+      <c r="B57">
+        <v>-2.7137156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-3398.6466999999998</v>
+      </c>
+      <c r="B58">
+        <v>-2.7657324999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-3472.7239</v>
+      </c>
+      <c r="B59">
+        <v>-2.8140806999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-3548.5938000000001</v>
+      </c>
+      <c r="B60">
+        <v>-2.8623843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-3627.9906999999998</v>
+      </c>
+      <c r="B61">
+        <v>-2.9150898000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-3710.2802999999999</v>
+      </c>
+      <c r="B62">
+        <v>-2.9628896999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-3797.5264000000002</v>
+      </c>
+      <c r="B63">
+        <v>-3.0128832000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-3885.6950999999999</v>
+      </c>
+      <c r="B64">
+        <v>-3.0635976999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-3980.3181</v>
+      </c>
+      <c r="B65">
+        <v>-3.1133142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-4072.74</v>
+      </c>
+      <c r="B66">
+        <v>-3.1613821999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-4172.4306999999999</v>
+      </c>
+      <c r="B67">
+        <v>-3.2117719999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-4273.5141999999996</v>
+      </c>
+      <c r="B68">
+        <v>-3.2639170000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-4386.6831000000002</v>
+      </c>
+      <c r="B69">
+        <v>-3.3112104000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-4498.9897000000001</v>
+      </c>
+      <c r="B70">
+        <v>-3.3625330999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-4612.3540000000003</v>
+      </c>
+      <c r="B71">
+        <v>-3.4129046999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-4736.1597000000002</v>
+      </c>
+      <c r="B72">
+        <v>-3.4627968999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-4859.71</v>
+      </c>
+      <c r="B73">
+        <v>-3.5123433999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-4992.0731999999998</v>
+      </c>
+      <c r="B74">
+        <v>-3.5612845000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-5133.6190999999999</v>
+      </c>
+      <c r="B75">
+        <v>-3.6117878000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-5277.2466000000004</v>
+      </c>
+      <c r="B76">
+        <v>-3.6617006999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-5427.6709000000001</v>
+      </c>
+      <c r="B77">
+        <v>-3.7111337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-5594.1782000000003</v>
+      </c>
+      <c r="B78">
+        <v>-3.7603282999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-5755.2494999999999</v>
+      </c>
+      <c r="B79">
+        <v>-3.8105483000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-5934.8296</v>
+      </c>
+      <c r="B80">
+        <v>-3.8607116000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-6131.9228999999996</v>
+      </c>
+      <c r="B81">
+        <v>-3.9099689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-6335.3032000000003</v>
+      </c>
+      <c r="B82">
+        <v>-3.9602127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-6549.1421</v>
+      </c>
+      <c r="B83">
+        <v>-4.0091004000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-6772.6313</v>
+      </c>
+      <c r="B84">
+        <v>-4.0598239999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-7008.9076999999997</v>
+      </c>
+      <c r="B85">
+        <v>-4.1091823999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-7255.4966000000004</v>
+      </c>
+      <c r="B86">
+        <v>-4.1591578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-7520.0127000000002</v>
+      </c>
+      <c r="B87">
+        <v>-4.2093720000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-7788.9413999999997</v>
+      </c>
+      <c r="B88">
+        <v>-4.2584562000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-8080.2681000000002</v>
+      </c>
+      <c r="B89">
+        <v>-4.3075527999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-8388.1074000000008</v>
+      </c>
+      <c r="B90">
+        <v>-4.3588456999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-8707.2294999999995</v>
+      </c>
+      <c r="B91">
+        <v>-4.4079269999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-9035.9892999999993</v>
+      </c>
+      <c r="B92">
+        <v>-4.4549222000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-9390.8916000000008</v>
+      </c>
+      <c r="B93">
+        <v>-4.5084057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-9754.5967000000001</v>
+      </c>
+      <c r="B94">
+        <v>-4.5559611000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-10148.620999999999</v>
+      </c>
+      <c r="B95">
+        <v>-4.6074118999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-10555.985000000001</v>
+      </c>
+      <c r="B96">
+        <v>-4.6557689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-10988.385</v>
+      </c>
+      <c r="B97">
+        <v>-4.7051157999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-11430.683000000001</v>
+      </c>
+      <c r="B98">
+        <v>-4.7544775000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-11893.004999999999</v>
+      </c>
+      <c r="B99">
+        <v>-4.8034840000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-12360.136</v>
+      </c>
+      <c r="B100">
+        <v>-4.8530426000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-12867.636</v>
+      </c>
+      <c r="B101">
+        <v>-4.9067015999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-13368.513999999999</v>
+      </c>
+      <c r="B102">
+        <v>-4.9523109999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-13852.053</v>
+      </c>
+      <c r="B103">
+        <v>-5.0010437999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-12096.224</v>
+      </c>
+      <c r="B104">
+        <v>-4.9635376999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-10468.835999999999</v>
+      </c>
+      <c r="B105">
+        <v>-4.9167956999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-9117.4590000000007</v>
+      </c>
+      <c r="B106">
+        <v>-4.8663254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-8010.5492999999997</v>
+      </c>
+      <c r="B107">
+        <v>-4.8132386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-7160.4453000000003</v>
+      </c>
+      <c r="B108">
+        <v>-4.7628665000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-6409.3130000000001</v>
+      </c>
+      <c r="B109">
+        <v>-4.7149533999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-5751.7143999999998</v>
+      </c>
+      <c r="B110">
+        <v>-4.6662296999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-5192.7187999999996</v>
+      </c>
+      <c r="B111">
+        <v>-4.6138934999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-4716.3423000000003</v>
+      </c>
+      <c r="B112">
+        <v>-4.5631165999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-4314.3964999999998</v>
+      </c>
+      <c r="B113">
+        <v>-4.5112724000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-3964.2559000000001</v>
+      </c>
+      <c r="B114">
+        <v>-4.4646559000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-3661.0173</v>
+      </c>
+      <c r="B115">
+        <v>-4.4137411000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-3385.4967999999999</v>
+      </c>
+      <c r="B116">
+        <v>-4.3633994999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-3147.0547000000001</v>
+      </c>
+      <c r="B117">
+        <v>-4.3120827999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-2930.1421</v>
+      </c>
+      <c r="B118">
+        <v>-4.2643928999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-2739.1138000000001</v>
+      </c>
+      <c r="B119">
+        <v>-4.2106713999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-2553.9126000000001</v>
+      </c>
+      <c r="B120">
+        <v>-4.1640306000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-2396.3784000000001</v>
+      </c>
+      <c r="B121">
+        <v>-4.1104136000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-2248.2278000000001</v>
+      </c>
+      <c r="B122">
+        <v>-4.0604677000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-2110.2892999999999</v>
+      </c>
+      <c r="B123">
+        <v>-4.0124053999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-1981.3258000000001</v>
+      </c>
+      <c r="B124">
+        <v>-3.963336</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-1861.1007999999999</v>
+      </c>
+      <c r="B125">
+        <v>-3.9135689999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-1750.3782000000001</v>
+      </c>
+      <c r="B126">
+        <v>-3.8634800999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-1643.4052999999999</v>
+      </c>
+      <c r="B127">
+        <v>-3.8105989</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-1547.6256000000001</v>
+      </c>
+      <c r="B128">
+        <v>-3.7627931000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-1447.4650999999999</v>
+      </c>
+      <c r="B129">
+        <v>-3.7105646000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-1352.8304000000001</v>
+      </c>
+      <c r="B130">
+        <v>-3.6618852999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-1263.4756</v>
+      </c>
+      <c r="B131">
+        <v>-3.6114898000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-1177.7610999999999</v>
+      </c>
+      <c r="B132">
+        <v>-3.5606765999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-1097.222</v>
+      </c>
+      <c r="B133">
+        <v>-3.5126295000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-1008.6496</v>
+      </c>
+      <c r="B134">
+        <v>-3.4619116999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-931.32977000000005</v>
+      </c>
+      <c r="B135">
+        <v>-3.4089619999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-854.02295000000004</v>
+      </c>
+      <c r="B136">
+        <v>-3.3613409999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-777.83037999999999</v>
+      </c>
+      <c r="B137">
+        <v>-3.3085551</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-705.20330999999999</v>
+      </c>
+      <c r="B138">
+        <v>-3.2615747000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-633.32732999999996</v>
+      </c>
+      <c r="B139">
+        <v>-3.2098974999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>-562.46686</v>
+      </c>
+      <c r="B140">
+        <v>-3.1618769000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-504.26013</v>
+      </c>
+      <c r="B141">
+        <v>-3.1123455</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-433.22140999999999</v>
+      </c>
+      <c r="B142">
+        <v>-3.0619763999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>-367.57529</v>
+      </c>
+      <c r="B143">
+        <v>-3.0103320999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-303.36621000000002</v>
+      </c>
+      <c r="B144">
+        <v>-2.9614414999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>-242.81088</v>
+      </c>
+      <c r="B145">
+        <v>-2.9136117000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>-187.61633</v>
+      </c>
+      <c r="B146">
+        <v>-2.8621221000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>-133.14578</v>
+      </c>
+      <c r="B147">
+        <v>-2.8129902000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>-76.916252</v>
+      </c>
+      <c r="B148">
+        <v>-2.7610774</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>-28.201938999999999</v>
+      </c>
+      <c r="B149">
+        <v>-2.7114954</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6.9677829999999998</v>
+      </c>
+      <c r="B150">
+        <v>-2.6613378999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>25.323965000000001</v>
+      </c>
+      <c r="B151">
+        <v>-2.6118453000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>40.795279999999998</v>
+      </c>
+      <c r="B152">
+        <v>-2.5596793</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>41.827652</v>
+      </c>
+      <c r="B153">
+        <v>-2.5115783</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>41.325297999999997</v>
+      </c>
+      <c r="B154">
+        <v>-2.4614596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>40.781405999999997</v>
+      </c>
+      <c r="B155">
+        <v>-2.4122739000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>42.042693999999997</v>
+      </c>
+      <c r="B156">
+        <v>-2.3612584999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>42.738579000000001</v>
+      </c>
+      <c r="B157">
+        <v>-2.3117895000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>41.605068000000003</v>
+      </c>
+      <c r="B158">
+        <v>-2.2615637999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>41.706020000000002</v>
+      </c>
+      <c r="B159">
+        <v>-2.2104377999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>41.923763000000001</v>
+      </c>
+      <c r="B160">
+        <v>-2.1634991000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>41.712539999999997</v>
+      </c>
+      <c r="B161">
+        <v>-2.1117802000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>42.515808</v>
+      </c>
+      <c r="B162">
+        <v>-2.0618791999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>41.670352999999999</v>
+      </c>
+      <c r="B163">
+        <v>-2.0104582</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>41.256751999999999</v>
+      </c>
+      <c r="B164">
+        <v>-1.9609506000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>40.900241999999999</v>
+      </c>
+      <c r="B165">
+        <v>-1.9117708</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>42.009075000000003</v>
+      </c>
+      <c r="B166">
+        <v>-1.8606955999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>41.169578999999999</v>
+      </c>
+      <c r="B167">
+        <v>-1.8095489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>40.876026000000003</v>
+      </c>
+      <c r="B168">
+        <v>-1.7632152000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>42.260719000000002</v>
+      </c>
+      <c r="B169">
+        <v>-1.7119194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>40.909927000000003</v>
+      </c>
+      <c r="B170">
+        <v>-1.6617143999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>41.732470999999997</v>
+      </c>
+      <c r="B171">
+        <v>-1.6111607999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>42.504910000000002</v>
+      </c>
+      <c r="B172">
+        <v>-1.5626247</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>40.909087999999997</v>
+      </c>
+      <c r="B173">
+        <v>-1.5116925000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>41.66048</v>
+      </c>
+      <c r="B174">
+        <v>-1.4620329000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>41.608790999999997</v>
+      </c>
+      <c r="B175">
+        <v>-1.4130558</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>42.133499</v>
+      </c>
+      <c r="B176">
+        <v>-1.3624723000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>42.642558999999999</v>
+      </c>
+      <c r="B177">
+        <v>-1.313677</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>41.380431999999999</v>
+      </c>
+      <c r="B178">
+        <v>-1.2647444999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>41.728465999999997</v>
+      </c>
+      <c r="B179">
+        <v>-1.2142265999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>41.918456999999997</v>
+      </c>
+      <c r="B180">
+        <v>-1.1631841999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>41.690933000000001</v>
+      </c>
+      <c r="B181">
+        <v>-1.1126602999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>41.478966</v>
+      </c>
+      <c r="B182">
+        <v>-1.0624671999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>40.677841000000001</v>
+      </c>
+      <c r="B183">
+        <v>-1.0133141999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>41.812843000000001</v>
+      </c>
+      <c r="B184">
+        <v>-0.96232545000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>41.315238999999998</v>
+      </c>
+      <c r="B185">
+        <v>-0.91402483000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>42.197665999999998</v>
+      </c>
+      <c r="B186">
+        <v>-0.86229396000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>41.424297000000003</v>
+      </c>
+      <c r="B187">
+        <v>-0.81538509999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>40.676071</v>
+      </c>
+      <c r="B188">
+        <v>-0.76459301000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>41.798873999999998</v>
+      </c>
+      <c r="B189">
+        <v>-0.71336579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>40.407477999999998</v>
+      </c>
+      <c r="B190">
+        <v>-0.66403699000000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>41.752868999999997</v>
+      </c>
+      <c r="B191">
+        <v>-0.61350417000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>40.403472999999998</v>
+      </c>
+      <c r="B192">
+        <v>-0.56451808999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>41.409675999999997</v>
+      </c>
+      <c r="B193">
+        <v>-0.51581513999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>40.874721999999998</v>
+      </c>
+      <c r="B194">
+        <v>-0.46473991999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>39.414597000000001</v>
+      </c>
+      <c r="B195">
+        <v>-0.41571212000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>42.263511999999999</v>
+      </c>
+      <c r="B196">
+        <v>-0.36492002000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>42.367260000000002</v>
+      </c>
+      <c r="B197">
+        <v>-0.31500113000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>40.327759</v>
+      </c>
+      <c r="B198">
+        <v>-0.26437294</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>41.668208999999997</v>
+      </c>
+      <c r="B199">
+        <v>-0.21648359</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>41.644832999999998</v>
+      </c>
+      <c r="B200">
+        <v>-0.16585541000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>41.709282000000002</v>
+      </c>
+      <c r="B201">
+        <v>-0.11571896</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>42.326282999999997</v>
+      </c>
+      <c r="B202">
+        <v>-6.6297770000000006E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>40.303821999999997</v>
+      </c>
+      <c r="B203">
+        <v>-1.7678261000000001E-2</v>
       </c>
     </row>
   </sheetData>
